--- a/data/trans_orig/P69_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{494FC464-6D3F-44CE-B5CB-597DA5CD0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE72ED26-9226-47DF-B436-DBA27297B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F536D6B7-7AC9-441B-9C18-F65183311EEA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFFDD438-A020-4DDB-84A6-9C42559572AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="250">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -113,7 +113,7 @@
     <t>98,42%</t>
   </si>
   <si>
-    <t>93,22%</t>
+    <t>91,97%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -122,13 +122,13 @@
     <t>98,87%</t>
   </si>
   <si>
-    <t>93,65%</t>
+    <t>93,92%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>6,78%</t>
+    <t>8,03%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -137,7 +137,7 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>6,35%</t>
+    <t>6,08%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -146,7 +146,7 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>96,6%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -155,13 +155,13 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>97,52%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>3,4%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -170,7 +170,7 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -188,7 +188,7 @@
     <t>99,35%</t>
   </si>
   <si>
-    <t>96,74%</t>
+    <t>96,01%</t>
   </si>
   <si>
     <t>0,92%</t>
@@ -203,7 +203,7 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,99%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -212,193 +212,205 @@
     <t>99,38%</t>
   </si>
   <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>97,66%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2015 (Tasa respuesta: 8,05%)</t>
@@ -437,7 +449,7 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>93,66%</t>
+    <t>92,7%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -446,13 +458,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>95,28%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>6,34%</t>
+    <t>7,3%</t>
   </si>
   <si>
     <t>3,61%</t>
@@ -461,13 +473,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>4,72%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>96,41%</t>
+    <t>95,55%</t>
   </si>
   <si>
     <t>97,05%</t>
@@ -476,10 +488,13 @@
     <t>99,46%</t>
   </si>
   <si>
+    <t>96,31%</t>
+  </si>
+  <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,59%</t>
+    <t>4,45%</t>
   </si>
   <si>
     <t>2,95%</t>
@@ -488,82 +503,85 @@
     <t>0,54%</t>
   </si>
   <si>
+    <t>3,69%</t>
+  </si>
+  <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>94,82%</t>
+    <t>95,73%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>5,18%</t>
+    <t>4,27%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>97,88%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
@@ -572,7 +590,7 @@
     <t>94,59%</t>
   </si>
   <si>
-    <t>71,02%</t>
+    <t>69,52%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -581,13 +599,13 @@
     <t>96,98%</t>
   </si>
   <si>
-    <t>86,44%</t>
+    <t>86,29%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>28,98%</t>
+    <t>30,48%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -596,7 +614,7 @@
     <t>3,02%</t>
   </si>
   <si>
-    <t>13,56%</t>
+    <t>13,71%</t>
   </si>
   <si>
     <t>96,64%</t>
@@ -605,10 +623,10 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>3,36%</t>
@@ -617,10 +635,10 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>98,29%</t>
@@ -629,13 +647,13 @@
     <t>98,03%</t>
   </si>
   <si>
-    <t>94,45%</t>
+    <t>94,77%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -650,85 +668,79 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>5,55%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>89,93%</t>
+    <t>90,57%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,7%</t>
+    <t>95,33%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>95,08%</t>
+    <t>95,42%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>10,07%</t>
+    <t>9,43%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>4,67%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,53%</t>
+    <t>97,65%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -737,16 +749,19 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>99,58%</t>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -755,22 +770,25 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,35%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B14B51-1E2E-4ADC-888B-BDF729A1C162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D417033F-59BD-48CD-866A-DD05EB64F067}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2245,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1B009F-1BC5-43F1-B6B4-EA7E23A0732E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA03C9C-6240-42FC-9298-B08E74BA9ED8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2527,7 +2545,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2557,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2581,7 +2599,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2611,7 +2629,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2700,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2697,7 +2715,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2712,7 +2730,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2736,7 +2754,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2751,7 +2769,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2766,7 +2784,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2855,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2852,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2867,7 +2885,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2891,7 +2909,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2906,7 +2924,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2921,7 +2939,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3007,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3022,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3046,7 +3064,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3061,7 +3079,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3076,7 +3094,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,10 +3162,10 @@
         <v>330639</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -3162,7 +3180,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3174,10 +3192,10 @@
         <v>546466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3195,13 +3213,13 @@
         <v>813</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3216,7 +3234,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3225,13 +3243,13 @@
         <v>813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15EA2BA-E886-4388-B89D-2BC5578E45D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186F4D00-B810-40C1-B3D1-3A8069387CE3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3435,7 +3453,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3465,7 +3483,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3489,7 +3507,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3519,7 +3537,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3608,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3605,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3620,7 +3638,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3644,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3659,7 +3677,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3674,7 +3692,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,10 +3760,10 @@
         <v>94966</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3760,7 +3778,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3772,10 +3790,10 @@
         <v>150517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3793,13 +3811,13 @@
         <v>2018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3814,7 +3832,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3823,13 +3841,13 @@
         <v>2018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,10 +3915,10 @@
         <v>108984</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3915,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3927,10 +3945,10 @@
         <v>173731</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3948,13 +3966,13 @@
         <v>951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3969,7 +3987,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3978,13 +3996,13 @@
         <v>951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,10 +4070,10 @@
         <v>87489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4067,10 +4085,10 @@
         <v>64971</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4082,10 +4100,10 @@
         <v>152460</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4103,13 +4121,13 @@
         <v>921</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4118,13 +4136,13 @@
         <v>1112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4133,13 +4151,13 @@
         <v>2033</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4225,13 @@
         <v>346111</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>206</v>
@@ -4222,10 +4240,10 @@
         <v>215186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4237,13 +4255,13 @@
         <v>561297</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4276,13 @@
         <v>3890</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4273,13 +4291,13 @@
         <v>1112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4288,13 +4306,13 @@
         <v>5002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,7 +4389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04116345-604F-4F06-944B-CE3906DA3EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00050A13-5861-4DA7-BFD9-048B7505210C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4388,7 +4406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4495,10 +4513,10 @@
         <v>13444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4513,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4525,10 +4543,10 @@
         <v>24734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4546,13 +4564,13 @@
         <v>769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4567,7 +4585,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4576,13 +4594,13 @@
         <v>769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,7 +4671,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4665,10 +4683,10 @@
         <v>47835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -4680,10 +4698,10 @@
         <v>108147</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -4707,7 +4725,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4716,13 +4734,13 @@
         <v>159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4731,13 +4749,13 @@
         <v>159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,7 +4826,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4820,13 +4838,13 @@
         <v>107076</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -4835,13 +4853,13 @@
         <v>223526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,7 +4880,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4871,13 +4889,13 @@
         <v>2156</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4886,13 +4904,13 @@
         <v>2156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,10 +4978,10 @@
         <v>56853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4975,10 +4993,10 @@
         <v>78986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -4990,10 +5008,10 @@
         <v>135840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -5011,13 +5029,13 @@
         <v>1184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5026,13 +5044,13 @@
         <v>792</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5041,13 +5059,13 @@
         <v>1976</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,10 +5133,10 @@
         <v>102979</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -5130,10 +5148,10 @@
         <v>112090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -5145,10 +5163,10 @@
         <v>215069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -5166,13 +5184,13 @@
         <v>1027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5181,13 +5199,13 @@
         <v>826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -5196,13 +5214,13 @@
         <v>1852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5288,13 @@
         <v>350039</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>468</v>
@@ -5285,13 +5303,13 @@
         <v>357279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>803</v>
@@ -5300,13 +5318,13 @@
         <v>707316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5339,13 @@
         <v>2979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5336,13 +5354,13 @@
         <v>3932</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -5351,13 +5369,13 @@
         <v>6912</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P69_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE72ED26-9226-47DF-B436-DBA27297B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6EFAFC-6419-4CB6-B283-8BBA754CDA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFFDD438-A020-4DDB-84A6-9C42559572AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD1C2C46-E172-4108-B699-6A7AAE488D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="242">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,13 +107,13 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>91,97%</t>
+    <t>92,99%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -122,13 +122,13 @@
     <t>98,87%</t>
   </si>
   <si>
-    <t>93,92%</t>
+    <t>94,36%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>8,03%</t>
+    <t>7,01%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -137,16 +137,16 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>96,6%</t>
+    <t>96,61%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -155,13 +155,13 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,52%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -170,40 +170,34 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
     <t>96,02%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>96,01%</t>
+    <t>96,66%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
     <t>3,98%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,99%</t>
+    <t>3,34%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -212,7 +206,7 @@
     <t>99,38%</t>
   </si>
   <si>
-    <t>96,59%</t>
+    <t>96,83%</t>
   </si>
   <si>
     <t>97,77%</t>
@@ -221,13 +215,13 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,47%</t>
+    <t>97,83%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>3,41%</t>
+    <t>3,17%</t>
   </si>
   <si>
     <t>2,23%</t>
@@ -236,16 +230,16 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -254,7 +248,7 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,71%</t>
+    <t>98,57%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -263,10 +257,10 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -278,7 +272,7 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -290,7 +284,7 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>80,33%</t>
+    <t>80,58%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -299,13 +293,13 @@
     <t>97,24%</t>
   </si>
   <si>
-    <t>85,08%</t>
+    <t>87,71%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>19,67%</t>
+    <t>19,42%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -314,7 +308,7 @@
     <t>2,76%</t>
   </si>
   <si>
-    <t>14,92%</t>
+    <t>12,29%</t>
   </si>
   <si>
     <t>96,58%</t>
@@ -386,7 +380,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,77%</t>
+    <t>98,56%</t>
   </si>
   <si>
     <t>99,04%</t>
@@ -395,13 +389,13 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -410,10 +404,10 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2015 (Tasa respuesta: 8,05%)</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -449,7 +443,7 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>92,7%</t>
+    <t>93,52%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -458,13 +452,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>7,3%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>3,61%</t>
@@ -473,13 +467,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>95,55%</t>
+    <t>95,57%</t>
   </si>
   <si>
     <t>97,05%</t>
@@ -488,13 +482,13 @@
     <t>99,46%</t>
   </si>
   <si>
-    <t>96,31%</t>
+    <t>97,23%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,43%</t>
   </si>
   <si>
     <t>2,95%</t>
@@ -503,43 +497,43 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>2,77%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>95,73%</t>
+    <t>94,72%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>5,28%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,22%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -548,16 +542,16 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,88%</t>
+    <t>97,02%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>1,11%</t>
@@ -566,22 +560,22 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,98%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
@@ -626,9 +620,6 @@
     <t>98,14%</t>
   </si>
   <si>
-    <t>99,15%</t>
-  </si>
-  <si>
     <t>3,36%</t>
   </si>
   <si>
@@ -638,9 +629,6 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
@@ -656,9 +644,6 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
@@ -671,9 +656,6 @@
     <t>5,23%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
     <t>2,71%</t>
   </si>
   <si>
@@ -689,9 +671,6 @@
     <t>95,33%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
     <t>95,42%</t>
   </si>
   <si>
@@ -705,9 +684,6 @@
   </si>
   <si>
     <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
   </si>
   <si>
     <t>4,58%</t>
@@ -1200,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D417033F-59BD-48CD-866A-DD05EB64F067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900BC348-CEF8-4C0E-B1EF-19FD3F76E439}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1792,7 +1768,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -1807,7 +1783,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1819,10 +1795,10 @@
         <v>155461</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -1840,13 +1816,13 @@
         <v>1016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1861,7 +1837,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1870,13 +1846,13 @@
         <v>1016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,7 +1908,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1944,10 +1920,10 @@
         <v>136199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1962,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1974,10 +1950,10 @@
         <v>224750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1995,13 +1971,13 @@
         <v>850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2016,7 +1992,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2025,13 +2001,13 @@
         <v>850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2075,13 @@
         <v>468450</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -2117,7 +2093,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -2129,13 +2105,13 @@
         <v>688572</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2126,13 @@
         <v>3855</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2171,7 +2147,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2180,13 +2156,13 @@
         <v>3855</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,7 +2218,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA03C9C-6240-42FC-9298-B08E74BA9ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53575BA-A5E9-4A6A-B4DB-9C3CA868CC45}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2280,7 +2256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2387,10 +2363,10 @@
         <v>21324</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2405,7 +2381,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2417,10 +2393,10 @@
         <v>28678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2438,13 +2414,13 @@
         <v>813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2459,7 +2435,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2468,13 +2444,13 @@
         <v>813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2575,7 +2551,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2599,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2629,7 +2605,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2715,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2730,7 +2706,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2754,7 +2730,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2769,7 +2745,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2784,7 +2760,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2870,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2885,7 +2861,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2909,7 +2885,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2924,7 +2900,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2939,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,7 +2971,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3010,7 +2986,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3025,7 +3001,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3040,7 +3016,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3064,7 +3040,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3079,7 +3055,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3094,7 +3070,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,10 +3138,10 @@
         <v>330639</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -3180,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3192,10 +3168,10 @@
         <v>546466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3213,13 +3189,13 @@
         <v>813</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3234,7 +3210,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3243,13 +3219,13 @@
         <v>813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,7 +3281,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186F4D00-B810-40C1-B3D1-3A8069387CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A203ABAC-D163-4AD8-8BC2-11A7423DE808}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3453,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3483,7 +3459,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3507,7 +3483,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3537,7 +3513,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,7 +3584,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3623,7 +3599,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3638,7 +3614,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3662,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3677,7 +3653,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3692,7 +3668,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,10 +3736,10 @@
         <v>94966</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3778,7 +3754,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3790,10 +3766,10 @@
         <v>150517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3811,13 +3787,13 @@
         <v>2018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3832,7 +3808,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3841,13 +3817,13 @@
         <v>2018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,10 +3891,10 @@
         <v>108984</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3933,7 +3909,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3945,10 +3921,10 @@
         <v>173731</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3966,13 +3942,13 @@
         <v>951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3987,7 +3963,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3996,13 +3972,13 @@
         <v>951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,7 +4034,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4070,10 +4046,10 @@
         <v>87489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4085,10 +4061,10 @@
         <v>64971</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4100,10 +4076,10 @@
         <v>152460</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4121,13 +4097,13 @@
         <v>921</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4136,13 +4112,13 @@
         <v>1112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4151,13 +4127,13 @@
         <v>2033</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4201,13 @@
         <v>346111</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>206</v>
@@ -4240,10 +4216,10 @@
         <v>215186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4255,13 +4231,13 @@
         <v>561297</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4252,13 @@
         <v>3890</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4291,13 +4267,13 @@
         <v>1112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4306,13 +4282,13 @@
         <v>5002</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,7 +4344,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4389,7 +4365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00050A13-5861-4DA7-BFD9-048B7505210C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF19614-15D1-4951-B692-EC3B69FDBB5B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4406,7 +4382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4513,10 +4489,10 @@
         <v>13444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4531,7 +4507,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4543,10 +4519,10 @@
         <v>24734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4564,13 +4540,13 @@
         <v>769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4585,7 +4561,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4594,13 +4570,13 @@
         <v>769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,7 +4647,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4683,10 +4659,10 @@
         <v>47835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -4698,10 +4674,10 @@
         <v>108147</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -4725,7 +4701,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4734,13 +4710,13 @@
         <v>159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4749,13 +4725,13 @@
         <v>159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4802,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4838,13 +4814,13 @@
         <v>107076</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -4853,13 +4829,13 @@
         <v>223526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4856,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4889,13 +4865,13 @@
         <v>2156</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4904,13 +4880,13 @@
         <v>2156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,10 +4954,10 @@
         <v>56853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4993,10 +4969,10 @@
         <v>78986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -5008,10 +4984,10 @@
         <v>135840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -5029,13 +5005,13 @@
         <v>1184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5044,13 +5020,13 @@
         <v>792</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5059,13 +5035,13 @@
         <v>1976</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,7 +5097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5133,10 +5109,10 @@
         <v>102979</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -5148,10 +5124,10 @@
         <v>112090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -5163,10 +5139,10 @@
         <v>215069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -5184,13 +5160,13 @@
         <v>1027</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5199,13 +5175,13 @@
         <v>826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -5214,13 +5190,13 @@
         <v>1852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5264,13 @@
         <v>350039</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>468</v>
@@ -5303,13 +5279,13 @@
         <v>357279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>803</v>
@@ -5318,13 +5294,13 @@
         <v>707316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5315,13 @@
         <v>2979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5354,13 +5330,13 @@
         <v>3932</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -5369,13 +5345,13 @@
         <v>6912</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,7 +5407,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P69_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6EFAFC-6419-4CB6-B283-8BBA754CDA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF59507-30F1-4474-B07F-D83B76C8A337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD1C2C46-E172-4108-B699-6A7AAE488D3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD7F31D6-62C0-45FD-AAD8-1B489E9E2E34}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="244">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -113,7 +113,7 @@
     <t>98,42%</t>
   </si>
   <si>
-    <t>92,99%</t>
+    <t>93,22%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -122,13 +122,13 @@
     <t>98,87%</t>
   </si>
   <si>
-    <t>94,36%</t>
+    <t>93,65%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>7,01%</t>
+    <t>6,78%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -137,7 +137,7 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>5,64%</t>
+    <t>6,35%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -146,7 +146,7 @@
     <t>99,34%</t>
   </si>
   <si>
-    <t>96,61%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -155,13 +155,13 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,74%</t>
+    <t>97,26%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>3,39%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -170,7 +170,7 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,26%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -179,25 +179,31 @@
     <t>99,08%</t>
   </si>
   <si>
+    <t>95,23%</t>
+  </si>
+  <si>
     <t>96,02%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>96,66%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
+    <t>4,77%</t>
+  </si>
+  <si>
     <t>3,98%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,34%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -206,7 +212,7 @@
     <t>99,38%</t>
   </si>
   <si>
-    <t>96,83%</t>
+    <t>96,58%</t>
   </si>
   <si>
     <t>97,77%</t>
@@ -215,13 +221,13 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>97,83%</t>
+    <t>98,12%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>3,42%</t>
   </si>
   <si>
     <t>2,23%</t>
@@ -230,493 +236,499 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>1,88%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,05%</t>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>3,46%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,65%</t>
+    <t>97,53%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -725,46 +737,40 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,68%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
     <t>0,84%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>1,8%</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900BC348-CEF8-4C0E-B1EF-19FD3F76E439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320CAEE6-5DF6-4CA8-A468-25BEEC3F325F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1768,7 +1774,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -1783,7 +1789,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1795,10 +1801,10 @@
         <v>155461</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -1816,13 +1822,13 @@
         <v>1016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1837,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1846,13 +1852,13 @@
         <v>1016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1914,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1920,10 +1926,10 @@
         <v>136199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1938,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1950,10 +1956,10 @@
         <v>224750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1971,13 +1977,13 @@
         <v>850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1992,7 +1998,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2001,13 +2007,13 @@
         <v>850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2081,13 @@
         <v>468450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -2093,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -2105,13 +2111,13 @@
         <v>688572</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2132,13 @@
         <v>3855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2147,7 +2153,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2156,13 +2162,13 @@
         <v>3855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,7 +2224,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53575BA-A5E9-4A6A-B4DB-9C3CA868CC45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3F4FC-C11D-4A80-BC3B-2175D7EEFB94}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2256,7 +2262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2363,10 +2369,10 @@
         <v>21324</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2381,7 +2387,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2393,10 +2399,10 @@
         <v>28678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2414,13 +2420,13 @@
         <v>813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2435,7 +2441,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2444,13 +2450,13 @@
         <v>813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2551,7 +2557,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2575,7 +2581,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2971,7 +2977,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3168,10 +3174,10 @@
         <v>546466</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3189,13 +3195,13 @@
         <v>813</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3210,7 +3216,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3219,13 +3225,13 @@
         <v>813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3287,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A203ABAC-D163-4AD8-8BC2-11A7423DE808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C46E9C-9574-4E8A-A05C-A95C06A4A5A3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,7 +3325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3429,7 +3435,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3459,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3483,7 +3489,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3513,7 +3519,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,7 +3590,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3599,7 +3605,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3614,7 +3620,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3638,7 +3644,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3653,7 +3659,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3668,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,10 +3742,10 @@
         <v>94966</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3754,7 +3760,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3766,10 +3772,10 @@
         <v>150517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3787,13 +3793,13 @@
         <v>2018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3808,7 +3814,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3817,13 +3823,13 @@
         <v>2018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,10 +3897,10 @@
         <v>108984</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3909,7 +3915,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3921,10 +3927,10 @@
         <v>173731</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3942,13 +3948,13 @@
         <v>951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3963,7 +3969,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3972,13 +3978,13 @@
         <v>951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,7 +4040,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4046,10 +4052,10 @@
         <v>87489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4061,10 +4067,10 @@
         <v>64971</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4076,10 +4082,10 @@
         <v>152460</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4097,13 +4103,13 @@
         <v>921</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4112,13 +4118,13 @@
         <v>1112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4127,13 +4133,13 @@
         <v>2033</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4207,13 @@
         <v>346111</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H19" s="7">
         <v>206</v>
@@ -4216,10 +4222,10 @@
         <v>215186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4231,13 +4237,13 @@
         <v>561297</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4258,13 @@
         <v>3890</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4267,13 +4273,13 @@
         <v>1112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4282,13 +4288,13 @@
         <v>5002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4350,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF19614-15D1-4951-B692-EC3B69FDBB5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61DC25D-40E6-4810-B469-97FE97EBF37A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4382,7 +4388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4489,10 +4495,10 @@
         <v>13444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4507,7 +4513,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4519,10 +4525,10 @@
         <v>24734</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4540,13 +4546,13 @@
         <v>769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4561,7 +4567,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4570,13 +4576,13 @@
         <v>769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,7 +4653,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4659,10 +4665,10 @@
         <v>47835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -4674,10 +4680,10 @@
         <v>108147</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -4701,7 +4707,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4710,13 +4716,13 @@
         <v>159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4725,13 +4731,13 @@
         <v>159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4808,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -4814,13 +4820,13 @@
         <v>107076</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -4832,10 +4838,10 @@
         <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4862,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4865,13 +4871,13 @@
         <v>2156</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4880,10 +4886,10 @@
         <v>2156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>205</v>
@@ -4984,10 +4990,10 @@
         <v>135840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -5005,13 +5011,13 @@
         <v>1184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5020,13 +5026,13 @@
         <v>792</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5035,13 +5041,13 @@
         <v>1976</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,7 +5103,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5112,7 +5118,7 @@
         <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -5124,10 +5130,10 @@
         <v>112090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -5139,10 +5145,10 @@
         <v>215069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -5160,13 +5166,13 @@
         <v>1027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5175,13 +5181,13 @@
         <v>826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -5190,13 +5196,13 @@
         <v>1852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5270,13 @@
         <v>350039</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>468</v>
@@ -5279,13 +5285,13 @@
         <v>357279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>803</v>
@@ -5294,13 +5300,13 @@
         <v>707316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5321,13 @@
         <v>2979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5330,10 +5336,10 @@
         <v>3932</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>238</v>
@@ -5345,13 +5351,13 @@
         <v>6912</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5413,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P69_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF59507-30F1-4474-B07F-D83B76C8A337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85796ED5-124C-4420-8A82-6E1E6C2ADD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD7F31D6-62C0-45FD-AAD8-1B489E9E2E34}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AAE28F33-1D2F-4BC6-A535-DE16C4DE0662}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="221">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,709 +68,640 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>87,39%</t>
+    <t>94,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>7,65%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>1,73%</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1113,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320CAEE6-5DF6-4CA8-A468-25BEEC3F325F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF44F96E-729E-453F-A658-7A25C0ECE237}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1300,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7">
-        <v>15071</v>
+        <v>78313</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1315,31 +1246,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="N4" s="7">
-        <v>21126</v>
+        <v>110554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1348,22 +1279,22 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1372,28 +1303,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,123 +1333,123 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>15071</v>
+        <v>79331</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>21126</v>
+        <v>111572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="D7" s="7">
-        <v>63243</v>
+        <v>145010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="N7" s="7">
-        <v>89428</v>
+        <v>197806</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1018</v>
+        <v>971</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1527,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1018</v>
+        <v>971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,123 +1488,123 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>64261</v>
+        <v>145981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>90446</v>
+        <v>198777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7">
-        <v>145010</v>
+        <v>108928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="N10" s="7">
-        <v>197806</v>
+        <v>155461</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>971</v>
+        <v>1016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1682,28 +1613,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>971</v>
+        <v>1016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,123 +1643,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>145981</v>
+        <v>109944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>198777</v>
+        <v>156477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="D13" s="7">
-        <v>108928</v>
+        <v>136199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I13" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="N13" s="7">
-        <v>155461</v>
+        <v>224750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1016</v>
+        <v>850</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1837,28 +1768,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>1016</v>
+        <v>850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,123 +1798,123 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>109944</v>
+        <v>137049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N15" s="7">
-        <v>156477</v>
+        <v>225600</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>137</v>
+        <v>446</v>
       </c>
       <c r="D16" s="7">
-        <v>136199</v>
+        <v>468450</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>222</v>
+        <v>661</v>
       </c>
       <c r="N16" s="7">
-        <v>224750</v>
+        <v>688572</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>850</v>
+        <v>3855</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1992,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>850</v>
+        <v>3855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,217 +1953,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D18" s="7">
-        <v>137049</v>
+        <v>472305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="N18" s="7">
-        <v>225600</v>
+        <v>692427</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>446</v>
-      </c>
-      <c r="D19" s="7">
-        <v>468450</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="7">
-        <v>215</v>
-      </c>
-      <c r="I19" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>661</v>
-      </c>
-      <c r="N19" s="7">
-        <v>688572</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3855</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3855</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>450</v>
-      </c>
-      <c r="D21" s="7">
-        <v>472305</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>215</v>
-      </c>
-      <c r="I21" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>665</v>
-      </c>
-      <c r="N21" s="7">
-        <v>692427</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2245,8 +2020,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3F4FC-C11D-4A80-BC3B-2175D7EEFB94}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4108317-1A4C-4EBF-B254-569B895C0AB8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2262,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2363,55 +2138,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D4" s="7">
-        <v>21324</v>
+        <v>76830</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>7354</v>
+        <v>35254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="N4" s="7">
-        <v>28678</v>
+        <v>112085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -2420,13 +2195,13 @@
         <v>813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2435,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2450,13 +2225,13 @@
         <v>813</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,108 +2240,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7">
-        <v>22137</v>
+        <v>77643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>7354</v>
+        <v>35254</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="N6" s="7">
-        <v>29491</v>
+        <v>112898</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7">
-        <v>55507</v>
+        <v>93909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7">
-        <v>27900</v>
+        <v>63498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="N7" s="7">
-        <v>83407</v>
+        <v>157408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2575,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2590,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2605,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,108 +2395,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7">
-        <v>55507</v>
+        <v>93909</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I9" s="7">
-        <v>27900</v>
+        <v>63498</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="N9" s="7">
-        <v>83407</v>
+        <v>157408</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>93909</v>
+        <v>79557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>63498</v>
+        <v>52979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="N10" s="7">
-        <v>157408</v>
+        <v>132536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2730,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2745,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2760,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,108 +2550,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>93909</v>
+        <v>79557</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>63498</v>
+        <v>52979</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="N12" s="7">
-        <v>157408</v>
+        <v>132536</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>79557</v>
+        <v>80342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7">
-        <v>52979</v>
+        <v>64096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="N13" s="7">
-        <v>132536</v>
+        <v>144438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2885,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2900,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2915,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,99 +2705,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>79557</v>
+        <v>80342</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I15" s="7">
-        <v>52979</v>
+        <v>64096</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="N15" s="7">
-        <v>132536</v>
+        <v>144438</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="D16" s="7">
-        <v>80342</v>
+        <v>330639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>198</v>
+      </c>
+      <c r="I16" s="7">
+        <v>215828</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="7">
+        <v>515</v>
+      </c>
+      <c r="N16" s="7">
+        <v>546466</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>59</v>
-      </c>
-      <c r="I16" s="7">
-        <v>64096</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>139</v>
-      </c>
-      <c r="N16" s="7">
-        <v>144438</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3031,22 +2806,22 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3055,28 +2830,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>813</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,217 +2860,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="D18" s="7">
-        <v>80342</v>
+        <v>331452</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="I18" s="7">
-        <v>64096</v>
+        <v>215828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>139</v>
+        <v>516</v>
       </c>
       <c r="N18" s="7">
-        <v>144438</v>
+        <v>547279</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>317</v>
-      </c>
-      <c r="D19" s="7">
-        <v>330639</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>198</v>
-      </c>
-      <c r="I19" s="7">
-        <v>215828</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>515</v>
-      </c>
-      <c r="N19" s="7">
-        <v>546466</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>813</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>813</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>318</v>
-      </c>
-      <c r="D21" s="7">
-        <v>331452</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>198</v>
-      </c>
-      <c r="I21" s="7">
-        <v>215828</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>516</v>
-      </c>
-      <c r="N21" s="7">
-        <v>547279</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
+      <c r="A19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3308,8 +2927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C46E9C-9574-4E8A-A05C-A95C06A4A5A3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F476330E-788E-4E32-9908-A629518F0954}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3325,7 +2944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3426,55 +3045,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N4" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3483,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3498,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3513,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,99 +3147,99 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>46624</v>
+        <v>94966</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="N7" s="7">
-        <v>70409</v>
+        <v>150517</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3629,22 +3248,22 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3653,28 +3272,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,123 +3302,123 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>46624</v>
+        <v>96984</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
-        <v>70409</v>
+        <v>152535</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7">
-        <v>94966</v>
+        <v>108984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="N10" s="7">
-        <v>150517</v>
+        <v>173731</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2018</v>
+        <v>951</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3808,28 +3427,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>2018</v>
+        <v>951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,153 +3457,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7">
-        <v>96984</v>
+        <v>109935</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N12" s="7">
-        <v>152535</v>
+        <v>174682</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7">
-        <v>108984</v>
+        <v>87489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>64747</v>
+        <v>64971</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
         <v>143</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>166</v>
-      </c>
       <c r="N13" s="7">
-        <v>173731</v>
+        <v>152460</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>951</v>
+        <v>921</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>951</v>
+        <v>2033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,123 +3612,123 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7">
-        <v>109935</v>
+        <v>88410</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>64747</v>
+        <v>66083</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>174682</v>
+        <v>154493</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="D16" s="7">
-        <v>87489</v>
+        <v>346111</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="7">
+        <v>206</v>
+      </c>
+      <c r="I16" s="7">
+        <v>215186</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>524</v>
+      </c>
+      <c r="N16" s="7">
+        <v>561297</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7">
-        <v>64971</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="7">
-        <v>143</v>
-      </c>
-      <c r="N16" s="7">
-        <v>152460</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>921</v>
+        <v>3890</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4118,28 +3737,28 @@
         <v>1112</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5002</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2033</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,217 +3767,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D18" s="7">
-        <v>88410</v>
+        <v>350001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>66083</v>
+        <v>216298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>154493</v>
+        <v>566299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>318</v>
-      </c>
-      <c r="D19" s="7">
-        <v>346111</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="7">
-        <v>206</v>
-      </c>
-      <c r="I19" s="7">
-        <v>215186</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>524</v>
-      </c>
-      <c r="N19" s="7">
-        <v>561297</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3890</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1112</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5002</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>322</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350001</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>207</v>
-      </c>
-      <c r="I21" s="7">
-        <v>216298</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>529</v>
-      </c>
-      <c r="N21" s="7">
-        <v>566299</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
+      <c r="A19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4371,8 +3834,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61DC25D-40E6-4810-B469-97FE97EBF37A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE4BB66-AFEE-42C7-9358-D10E9FABFDA5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4388,7 +3851,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4489,100 +3952,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7">
-        <v>13444</v>
+        <v>70503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>11291</v>
+        <v>54519</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="N4" s="7">
-        <v>24734</v>
+        <v>125023</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>769</v>
+        <v>712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>769</v>
+        <v>874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,108 +4054,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>14213</v>
+        <v>71215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>11291</v>
+        <v>54681</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>25503</v>
+        <v>125897</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D7" s="7">
-        <v>60312</v>
+        <v>111983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I7" s="7">
-        <v>47835</v>
+        <v>96706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="N7" s="7">
-        <v>108147</v>
+        <v>208688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4701,43 +4164,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>159</v>
+        <v>2024</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>159</v>
+        <v>2024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,153 +4209,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D9" s="7">
-        <v>60312</v>
+        <v>111983</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>47994</v>
+        <v>98730</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="N9" s="7">
-        <v>108306</v>
+        <v>210712</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>116450</v>
+        <v>54296</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>107076</v>
+        <v>96173</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="N10" s="7">
-        <v>223526</v>
+        <v>150468</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>2156</v>
+        <v>735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2156</v>
+        <v>1716</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,153 +4364,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>116450</v>
+        <v>55277</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>96908</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="7">
         <v>146</v>
       </c>
-      <c r="I12" s="7">
-        <v>109232</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="7">
-        <v>257</v>
-      </c>
       <c r="N12" s="7">
-        <v>225682</v>
+        <v>152184</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7">
-        <v>56853</v>
+        <v>100027</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>78986</v>
+        <v>103202</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="N13" s="7">
-        <v>135840</v>
+        <v>203229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1184</v>
+        <v>1003</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>792</v>
+        <v>694</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1976</v>
+        <v>1697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,153 +4519,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7">
-        <v>58037</v>
+        <v>101030</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="I15" s="7">
-        <v>79778</v>
+        <v>103896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>137816</v>
+        <v>204926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="D16" s="7">
-        <v>102979</v>
+        <v>336809</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
-        <v>149</v>
+        <v>468</v>
       </c>
       <c r="I16" s="7">
-        <v>112090</v>
+        <v>350600</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
-        <v>249</v>
+        <v>803</v>
       </c>
       <c r="N16" s="7">
-        <v>215069</v>
+        <v>687409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>1027</v>
+        <v>2696</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>826</v>
+        <v>3615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>1852</v>
+        <v>6311</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,217 +4674,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="D18" s="7">
-        <v>104006</v>
+        <v>339505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="I18" s="7">
-        <v>112916</v>
+        <v>354215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>812</v>
       </c>
       <c r="N18" s="7">
-        <v>216921</v>
+        <v>693720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>335</v>
-      </c>
-      <c r="D19" s="7">
-        <v>350039</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H19" s="7">
-        <v>468</v>
-      </c>
-      <c r="I19" s="7">
-        <v>357279</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M19" s="7">
-        <v>803</v>
-      </c>
-      <c r="N19" s="7">
-        <v>707316</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2979</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="7">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3932</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M20" s="7">
-        <v>9</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6912</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>338</v>
-      </c>
-      <c r="D21" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>474</v>
-      </c>
-      <c r="I21" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>812</v>
-      </c>
-      <c r="N21" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
+      <c r="A19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
